--- a/lib/data/ratings_project.xlsx
+++ b/lib/data/ratings_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitedauphine-my.sharepoint.com/personal/sangeerthan_kunaseelan_dauphine_eu/Documents/Magistère BFA/BFA 3/01_Cours/01_Python/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecf5dadb314d9681/Documents/CollatManagement/lib/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{93721B5E-40E2-4BA5-B81B-A50C57C9B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4E37D6-0574-4D8C-A72B-7D637E1E2FB4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{93721B5E-40E2-4BA5-B81B-A50C57C9B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD308A84-4984-4399-90ED-67D6AB8BE569}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E6DB531-2318-4E2B-A3BF-7863E55F4CB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1E6DB531-2318-4E2B-A3BF-7863E55F4CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Ratings Agency worst of 2</t>
-  </si>
-  <si>
     <t>Scarce Rating</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>CCC</t>
+  </si>
+  <si>
+    <t>Ratings Agency Worst of 2</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -693,264 +693,264 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="9">
         <v>12</v>

--- a/lib/data/ratings_project.xlsx
+++ b/lib/data/ratings_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecf5dadb314d9681/Documents/CollatManagement/lib/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{93721B5E-40E2-4BA5-B81B-A50C57C9B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD308A84-4984-4399-90ED-67D6AB8BE569}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{93721B5E-40E2-4BA5-B81B-A50C57C9B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB579C3-0DBB-4E4F-8436-34984C5D6AA5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1E6DB531-2318-4E2B-A3BF-7863E55F4CB6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E6DB531-2318-4E2B-A3BF-7863E55F4CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>Type</t>
   </si>
@@ -107,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -167,51 +167,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -293,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,31 +268,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -355,6 +301,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B33E18-B506-4050-909D-0C1A3CCDA3E0}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,24 +654,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
     </row>
@@ -763,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -774,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -788,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -804,13 +754,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -818,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
@@ -826,13 +776,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -840,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -848,10 +798,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
@@ -903,13 +853,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -917,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="6">
         <v>11</v>
@@ -925,13 +875,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -939,24 +889,14 @@
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="9">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>